--- a/template.xlsx
+++ b/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeyadshujoon/Documents/Coding/NameThing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeyadshujoon/Documents/Coding/GitHub-Repositories/Certificates-Mailmerge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8583D363-9984-2F44-8D9F-C6C80A69090E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB52028B-20BA-B448-B7DE-52CEA3192E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{0EFA9ED9-0FC3-A945-A358-AED707301CB1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Text you want to add 1</t>
   </si>
@@ -74,90 +74,6 @@
     <t>email address of person to send the cert to 6</t>
   </si>
   <si>
-    <t>Text you want to add 7</t>
-  </si>
-  <si>
-    <t>email address of person to send the cert to 7</t>
-  </si>
-  <si>
-    <t>Text you want to add 8</t>
-  </si>
-  <si>
-    <t>email address of person to send the cert to 8</t>
-  </si>
-  <si>
-    <t>Text you want to add 9</t>
-  </si>
-  <si>
-    <t>email address of person to send the cert to 9</t>
-  </si>
-  <si>
-    <t>Text you want to add 10</t>
-  </si>
-  <si>
-    <t>email address of person to send the cert to 10</t>
-  </si>
-  <si>
-    <t>Text you want to add 11</t>
-  </si>
-  <si>
-    <t>email address of person to send the cert to 11</t>
-  </si>
-  <si>
-    <t>Text you want to add 12</t>
-  </si>
-  <si>
-    <t>email address of person to send the cert to 12</t>
-  </si>
-  <si>
-    <t>Text you want to add 13</t>
-  </si>
-  <si>
-    <t>email address of person to send the cert to 13</t>
-  </si>
-  <si>
-    <t>Text you want to add 14</t>
-  </si>
-  <si>
-    <t>email address of person to send the cert to 14</t>
-  </si>
-  <si>
-    <t>Text you want to add 15</t>
-  </si>
-  <si>
-    <t>email address of person to send the cert to 15</t>
-  </si>
-  <si>
-    <t>Text you want to add 16</t>
-  </si>
-  <si>
-    <t>email address of person to send the cert to 16</t>
-  </si>
-  <si>
-    <t>Text you want to add 17</t>
-  </si>
-  <si>
-    <t>email address of person to send the cert to 17</t>
-  </si>
-  <si>
-    <t>Text you want to add 18</t>
-  </si>
-  <si>
-    <t>email address of person to send the cert to 18</t>
-  </si>
-  <si>
-    <t>Text you want to add 19</t>
-  </si>
-  <si>
-    <t>email address of person to send the cert to 19</t>
-  </si>
-  <si>
-    <t>Text you want to add 20</t>
-  </si>
-  <si>
-    <t>email address of person to send the cert to 20</t>
-  </si>
-  <si>
     <t>name of the pdf file (serial number) 1</t>
   </si>
   <si>
@@ -174,48 +90,6 @@
   </si>
   <si>
     <t>name of the pdf file (serial number) 6</t>
-  </si>
-  <si>
-    <t>name of the pdf file (serial number) 7</t>
-  </si>
-  <si>
-    <t>name of the pdf file (serial number) 8</t>
-  </si>
-  <si>
-    <t>name of the pdf file (serial number) 9</t>
-  </si>
-  <si>
-    <t>name of the pdf file (serial number) 10</t>
-  </si>
-  <si>
-    <t>name of the pdf file (serial number) 11</t>
-  </si>
-  <si>
-    <t>name of the pdf file (serial number) 12</t>
-  </si>
-  <si>
-    <t>name of the pdf file (serial number) 13</t>
-  </si>
-  <si>
-    <t>name of the pdf file (serial number) 14</t>
-  </si>
-  <si>
-    <t>name of the pdf file (serial number) 15</t>
-  </si>
-  <si>
-    <t>name of the pdf file (serial number) 16</t>
-  </si>
-  <si>
-    <t>name of the pdf file (serial number) 17</t>
-  </si>
-  <si>
-    <t>name of the pdf file (serial number) 18</t>
-  </si>
-  <si>
-    <t>name of the pdf file (serial number) 19</t>
-  </si>
-  <si>
-    <t>name of the pdf file (serial number) 20</t>
   </si>
 </sst>
 </file>
@@ -573,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CAECEF-4574-8541-AB88-A8B4C1B88672}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -594,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -605,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -616,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -627,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -638,7 +512,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -649,161 +523,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
